--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_11_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_11_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2259701.258210106</v>
+        <v>2255078.258807194</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -676,10 +676,10 @@
         <v>15.21022140383137</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>18.28182508062843</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>4.097100052852174</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>50.48273419507654</v>
-      </c>
-      <c r="U2" t="n">
-        <v>50.48273419507654</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>44.4651922790234</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>44.4651922790234</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>8.386866521745219</v>
       </c>
       <c r="F4" t="n">
         <v>50.48273419507654</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="H4" t="n">
         <v>50.48273419507654</v>
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>41.4216011981056</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>47.38379687733241</v>
       </c>
       <c r="G5" t="n">
-        <v>15.16194852731947</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>53.79631798062264</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>25.3458026083015</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,58 +974,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>47.38379687733242</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>53.79631798062264</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>53.79631798062264</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>47.3837968773324</v>
       </c>
       <c r="T6" t="n">
         <v>53.79631798062264</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1065,22 +1065,22 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>52.60630734092059</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="J7" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>13.74224000600998</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,16 +1135,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>170.1331892653149</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>80.34349396157837</v>
       </c>
       <c r="E8" t="n">
-        <v>136.0495987431512</v>
+        <v>170.1331892653149</v>
       </c>
       <c r="F8" t="n">
-        <v>170.1331892653147</v>
+        <v>170.1331892653149</v>
       </c>
       <c r="G8" t="n">
         <v>13.80371436173801</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>55.70610478157298</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>170.1331892653147</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>170.1331892653147</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>170.1331892653149</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1226,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.5414690675039</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>61.78225762642474</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>170.1331892653147</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>121.6627756762753</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>170.1331892653147</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>6.00825315569815</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>170.1331892653149</v>
       </c>
     </row>
     <row r="10">
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.31856917756</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.81978032712802</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,31 +1335,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.85685983115997</v>
+        <v>29.85685983115989</v>
       </c>
       <c r="R10" t="n">
-        <v>147.0593845160292</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>170.1331892653149</v>
       </c>
       <c r="U10" t="n">
-        <v>170.1331892653147</v>
+        <v>170.1331892653149</v>
       </c>
       <c r="V10" t="n">
-        <v>145.8848781107696</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>74.17667294660149</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>170.1331892653149</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>115.6949510903007</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722596</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,19 +1767,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>117.8112368377021</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1824,16 +1824,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>108.3106907504111</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>121.0116223990573</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,10 +2061,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>152.3771414330735</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2137,13 +2137,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20.25102067617261</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>164.5981994227929</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2295,10 +2295,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>119.3168020713731</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>176.5196562849264</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3000,16 +3000,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>140.3829797864967</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3082,10 +3082,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>10.74993283584265</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3438,10 +3438,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>191.6604102493268</v>
       </c>
       <c r="U37" t="n">
-        <v>104.4564809702492</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>148.6282353729473</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="42">
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="G43" t="n">
-        <v>137.7610225486951</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="45">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>64.80049431059319</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986324</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4146,7 +4146,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>173.205236524889</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99.94561517409093</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="C2" t="n">
-        <v>99.94561517409093</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="D2" t="n">
-        <v>99.94561517409093</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="E2" t="n">
         <v>48.95295437098331</v>
@@ -4324,7 +4324,7 @@
         <v>26.64359361790977</v>
       </c>
       <c r="H2" t="n">
-        <v>8.177103637477007</v>
+        <v>26.64359361790977</v>
       </c>
       <c r="I2" t="n">
         <v>8.177103637477007</v>
@@ -4333,19 +4333,19 @@
         <v>4.038618735606123</v>
       </c>
       <c r="K2" t="n">
-        <v>54.01652558873189</v>
+        <v>51.99721622092883</v>
       </c>
       <c r="L2" t="n">
-        <v>54.01652558873189</v>
+        <v>51.99721622092883</v>
       </c>
       <c r="M2" t="n">
         <v>101.9751230740546</v>
       </c>
       <c r="N2" t="n">
+        <v>101.9751230740546</v>
+      </c>
+      <c r="O2" t="n">
         <v>151.9530299271804</v>
-      </c>
-      <c r="O2" t="n">
-        <v>201.9309367803062</v>
       </c>
       <c r="P2" t="n">
         <v>201.9309367803062</v>
@@ -4354,13 +4354,13 @@
         <v>201.9309367803062</v>
       </c>
       <c r="R2" t="n">
-        <v>201.9309367803062</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="S2" t="n">
-        <v>201.9309367803062</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="T2" t="n">
-        <v>150.9382759771985</v>
+        <v>99.94561517409093</v>
       </c>
       <c r="U2" t="n">
         <v>99.94561517409093</v>
@@ -4369,13 +4369,13 @@
         <v>99.94561517409093</v>
       </c>
       <c r="W2" t="n">
-        <v>99.94561517409093</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="X2" t="n">
-        <v>99.94561517409093</v>
+        <v>48.95295437098331</v>
       </c>
       <c r="Y2" t="n">
-        <v>99.94561517409093</v>
+        <v>48.95295437098331</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.038618735606123</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="C3" t="n">
-        <v>4.038618735606123</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="D3" t="n">
-        <v>4.038618735606123</v>
+        <v>157.016601144929</v>
       </c>
       <c r="E3" t="n">
-        <v>4.038618735606123</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="F3" t="n">
-        <v>4.038618735606123</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="G3" t="n">
-        <v>4.038618735606123</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="H3" t="n">
-        <v>4.038618735606123</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="I3" t="n">
         <v>4.038618735606123</v>
@@ -4415,13 +4415,13 @@
         <v>54.01652558873189</v>
       </c>
       <c r="L3" t="n">
-        <v>54.01652558873189</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="M3" t="n">
-        <v>54.01652558873189</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="N3" t="n">
-        <v>54.01652558873189</v>
+        <v>101.9751230740546</v>
       </c>
       <c r="O3" t="n">
         <v>101.9751230740546</v>
@@ -4436,25 +4436,25 @@
         <v>201.9309367803062</v>
       </c>
       <c r="S3" t="n">
-        <v>157.016601144929</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="T3" t="n">
-        <v>157.016601144929</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="U3" t="n">
-        <v>106.0239403418214</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="V3" t="n">
-        <v>55.03127953871374</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="W3" t="n">
-        <v>4.038618735606123</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="X3" t="n">
-        <v>4.038618735606123</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.038618735606123</v>
+        <v>201.9309367803062</v>
       </c>
     </row>
     <row r="4">
@@ -4473,22 +4473,22 @@
         <v>165.4881834901262</v>
       </c>
       <c r="E4" t="n">
-        <v>165.4881834901262</v>
+        <v>157.016601144929</v>
       </c>
       <c r="F4" t="n">
-        <v>114.4955226870186</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="G4" t="n">
-        <v>114.4955226870186</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="H4" t="n">
-        <v>63.50286188391095</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="I4" t="n">
-        <v>63.50286188391095</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="J4" t="n">
-        <v>21.66286067370327</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="K4" t="n">
         <v>4.038618735606123</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80.90402084214027</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="C5" t="n">
-        <v>80.90402084214027</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="D5" t="n">
-        <v>80.90402084214027</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="E5" t="n">
-        <v>80.90402084214027</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="F5" t="n">
-        <v>73.95852009293679</v>
+        <v>112.9831357023339</v>
       </c>
       <c r="G5" t="n">
         <v>58.64342057039187</v>
       </c>
       <c r="H5" t="n">
-        <v>4.303705438449811</v>
+        <v>58.64342057039187</v>
       </c>
       <c r="I5" t="n">
         <v>4.303705438449811</v>
@@ -4573,19 +4573,19 @@
         <v>4.303705438449811</v>
       </c>
       <c r="L5" t="n">
-        <v>57.56206023926622</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="M5" t="n">
-        <v>110.8204150400826</v>
+        <v>50.24940920255072</v>
       </c>
       <c r="N5" t="n">
-        <v>164.078769840899</v>
+        <v>103.5077640033671</v>
       </c>
       <c r="O5" t="n">
-        <v>215.1852719224906</v>
+        <v>156.7661188041835</v>
       </c>
       <c r="P5" t="n">
-        <v>215.1852719224906</v>
+        <v>210.024473605</v>
       </c>
       <c r="Q5" t="n">
         <v>215.1852719224906</v>
@@ -4603,16 +4603,16 @@
         <v>160.8455567905485</v>
       </c>
       <c r="V5" t="n">
-        <v>135.2437359740823</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="W5" t="n">
-        <v>135.2437359740823</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="X5" t="n">
-        <v>80.90402084214027</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="Y5" t="n">
-        <v>80.90402084214027</v>
+        <v>160.8455567905485</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>112.9831357023339</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="C6" t="n">
-        <v>112.9831357023339</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="D6" t="n">
-        <v>58.64342057039187</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="E6" t="n">
-        <v>58.64342057039187</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="F6" t="n">
-        <v>58.64342057039187</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="G6" t="n">
-        <v>58.64342057039187</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="H6" t="n">
-        <v>58.64342057039187</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="I6" t="n">
         <v>4.303705438449811</v>
       </c>
       <c r="J6" t="n">
-        <v>4.303705438449811</v>
+        <v>10.61032575544672</v>
       </c>
       <c r="K6" t="n">
-        <v>57.56206023926622</v>
+        <v>63.86868055626314</v>
       </c>
       <c r="L6" t="n">
-        <v>110.8204150400826</v>
+        <v>108.6685623208577</v>
       </c>
       <c r="M6" t="n">
-        <v>110.8204150400826</v>
+        <v>108.6685623208577</v>
       </c>
       <c r="N6" t="n">
-        <v>110.8204150400826</v>
+        <v>108.6685623208577</v>
       </c>
       <c r="O6" t="n">
+        <v>108.6685623208577</v>
+      </c>
+      <c r="P6" t="n">
         <v>161.9269171216741</v>
-      </c>
-      <c r="P6" t="n">
-        <v>215.1852719224906</v>
       </c>
       <c r="Q6" t="n">
         <v>215.1852719224906</v>
@@ -4673,25 +4673,25 @@
         <v>215.1852719224906</v>
       </c>
       <c r="S6" t="n">
-        <v>167.322850834276</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="T6" t="n">
-        <v>112.9831357023339</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="U6" t="n">
-        <v>112.9831357023339</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="V6" t="n">
-        <v>112.9831357023339</v>
+        <v>52.16612652666438</v>
       </c>
       <c r="W6" t="n">
-        <v>112.9831357023339</v>
+        <v>52.16612652666438</v>
       </c>
       <c r="X6" t="n">
-        <v>112.9831357023339</v>
+        <v>52.16612652666438</v>
       </c>
       <c r="Y6" t="n">
-        <v>112.9831357023339</v>
+        <v>52.16612652666438</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58.64342057039187</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="C7" t="n">
-        <v>58.64342057039187</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="D7" t="n">
-        <v>58.64342057039187</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="E7" t="n">
-        <v>58.64342057039187</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="F7" t="n">
-        <v>58.64342057039187</v>
+        <v>128.0662171626491</v>
       </c>
       <c r="G7" t="n">
-        <v>58.64342057039187</v>
+        <v>128.0662171626491</v>
       </c>
       <c r="H7" t="n">
-        <v>58.64342057039187</v>
+        <v>73.72650203070704</v>
       </c>
       <c r="I7" t="n">
-        <v>58.64342057039187</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="J7" t="n">
-        <v>4.303705438449811</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="K7" t="n">
         <v>4.303705438449811</v>
@@ -4752,25 +4752,25 @@
         <v>181.2039013453972</v>
       </c>
       <c r="S7" t="n">
-        <v>126.8641862134551</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="T7" t="n">
-        <v>72.52447108151307</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="U7" t="n">
-        <v>72.52447108151307</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="V7" t="n">
-        <v>72.52447108151307</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="W7" t="n">
-        <v>58.64342057039187</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="X7" t="n">
-        <v>58.64342057039187</v>
+        <v>181.2039013453972</v>
       </c>
       <c r="Y7" t="n">
-        <v>58.64342057039187</v>
+        <v>181.2039013453972</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>336.8293444040575</v>
+        <v>624.2639643526002</v>
       </c>
       <c r="C8" t="n">
-        <v>336.8293444040575</v>
+        <v>452.4122580239992</v>
       </c>
       <c r="D8" t="n">
-        <v>336.8293444040575</v>
+        <v>371.2572136183645</v>
       </c>
       <c r="E8" t="n">
-        <v>199.4055072897633</v>
+        <v>199.4055072897635</v>
       </c>
       <c r="F8" t="n">
-        <v>27.55380096116257</v>
+        <v>27.55380096116258</v>
       </c>
       <c r="G8" t="n">
-        <v>13.61065514122518</v>
+        <v>13.61065514122519</v>
       </c>
       <c r="H8" t="n">
-        <v>13.61065514122518</v>
+        <v>13.61065514122519</v>
       </c>
       <c r="I8" t="n">
-        <v>13.61065514122518</v>
+        <v>13.61065514122519</v>
       </c>
       <c r="J8" t="n">
-        <v>13.61065514122518</v>
+        <v>13.61065514122519</v>
       </c>
       <c r="K8" t="n">
-        <v>182.0425125138868</v>
+        <v>13.61065514122519</v>
       </c>
       <c r="L8" t="n">
-        <v>182.8252870105052</v>
+        <v>14.39342963784393</v>
       </c>
       <c r="M8" t="n">
-        <v>215.3657119065932</v>
+        <v>182.8252870105057</v>
       </c>
       <c r="N8" t="n">
-        <v>253.0464832762997</v>
+        <v>351.2571443831675</v>
       </c>
       <c r="O8" t="n">
-        <v>421.4783406489613</v>
+        <v>373.5027670392536</v>
       </c>
       <c r="P8" t="n">
-        <v>530.1646890928182</v>
+        <v>530.1646890928188</v>
       </c>
       <c r="Q8" t="n">
-        <v>680.532757061259</v>
+        <v>680.5327570612598</v>
       </c>
       <c r="R8" t="n">
-        <v>680.532757061259</v>
+        <v>624.2639643526002</v>
       </c>
       <c r="S8" t="n">
-        <v>680.532757061259</v>
+        <v>624.2639643526002</v>
       </c>
       <c r="T8" t="n">
-        <v>680.532757061259</v>
+        <v>624.2639643526002</v>
       </c>
       <c r="U8" t="n">
-        <v>680.532757061259</v>
+        <v>624.2639643526002</v>
       </c>
       <c r="V8" t="n">
-        <v>508.6810507326582</v>
+        <v>624.2639643526002</v>
       </c>
       <c r="W8" t="n">
-        <v>336.8293444040575</v>
+        <v>624.2639643526002</v>
       </c>
       <c r="X8" t="n">
-        <v>336.8293444040575</v>
+        <v>624.2639643526002</v>
       </c>
       <c r="Y8" t="n">
-        <v>336.8293444040575</v>
+        <v>624.2639643526002</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>213.9376518017592</v>
+        <v>334.3967711310775</v>
       </c>
       <c r="C9" t="n">
-        <v>213.9376518017592</v>
+        <v>162.5450648024765</v>
       </c>
       <c r="D9" t="n">
-        <v>213.9376518017592</v>
+        <v>13.61065514122519</v>
       </c>
       <c r="E9" t="n">
-        <v>213.9376518017592</v>
+        <v>13.61065514122519</v>
       </c>
       <c r="F9" t="n">
-        <v>213.9376518017592</v>
+        <v>13.61065514122519</v>
       </c>
       <c r="G9" t="n">
-        <v>76.01697597599765</v>
+        <v>13.61065514122519</v>
       </c>
       <c r="H9" t="n">
-        <v>76.01697597599765</v>
+        <v>13.61065514122519</v>
       </c>
       <c r="I9" t="n">
-        <v>13.61065514122518</v>
+        <v>13.61065514122519</v>
       </c>
       <c r="J9" t="n">
-        <v>87.88972643578424</v>
+        <v>87.88972643578437</v>
       </c>
       <c r="K9" t="n">
-        <v>87.88972643578424</v>
+        <v>256.3215838084462</v>
       </c>
       <c r="L9" t="n">
-        <v>123.1258775948572</v>
+        <v>424.753441181108</v>
       </c>
       <c r="M9" t="n">
-        <v>183.6016721878825</v>
+        <v>537.3088314194928</v>
       </c>
       <c r="N9" t="n">
-        <v>352.0335295605441</v>
+        <v>613.7938852598</v>
       </c>
       <c r="O9" t="n">
-        <v>399.7826160575823</v>
+        <v>661.5429717568385</v>
       </c>
       <c r="P9" t="n">
-        <v>512.1008996885973</v>
+        <v>680.5327570612598</v>
       </c>
       <c r="Q9" t="n">
-        <v>680.532757061259</v>
+        <v>680.5327570612598</v>
       </c>
       <c r="R9" t="n">
-        <v>680.532757061259</v>
+        <v>680.5327570612598</v>
       </c>
       <c r="S9" t="n">
-        <v>680.532757061259</v>
+        <v>680.5327570612598</v>
       </c>
       <c r="T9" t="n">
-        <v>508.6810507326582</v>
+        <v>680.5327570612598</v>
       </c>
       <c r="U9" t="n">
-        <v>508.6810507326582</v>
+        <v>680.5327570612598</v>
       </c>
       <c r="V9" t="n">
-        <v>385.7893581303599</v>
+        <v>680.5327570612598</v>
       </c>
       <c r="W9" t="n">
-        <v>213.9376518017592</v>
+        <v>680.5327570612598</v>
       </c>
       <c r="X9" t="n">
-        <v>213.9376518017592</v>
+        <v>674.4638144797465</v>
       </c>
       <c r="Y9" t="n">
-        <v>213.9376518017592</v>
+        <v>502.6121081511455</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>182.6193108761343</v>
+        <v>59.8932615322636</v>
       </c>
       <c r="C10" t="n">
-        <v>182.6193108761343</v>
+        <v>59.8932615322636</v>
       </c>
       <c r="D10" t="n">
-        <v>182.6193108761343</v>
+        <v>59.8932615322636</v>
       </c>
       <c r="E10" t="n">
-        <v>182.6193108761343</v>
+        <v>59.8932615322636</v>
       </c>
       <c r="F10" t="n">
-        <v>182.6193108761343</v>
+        <v>59.8932615322636</v>
       </c>
       <c r="G10" t="n">
-        <v>13.61065514122518</v>
+        <v>59.8932615322636</v>
       </c>
       <c r="H10" t="n">
-        <v>13.61065514122518</v>
+        <v>59.8932615322636</v>
       </c>
       <c r="I10" t="n">
-        <v>13.61065514122518</v>
+        <v>59.8932615322636</v>
       </c>
       <c r="J10" t="n">
-        <v>13.61065514122518</v>
+        <v>13.61065514122519</v>
       </c>
       <c r="K10" t="n">
-        <v>68.90447724058038</v>
+        <v>68.90447724058049</v>
       </c>
       <c r="L10" t="n">
-        <v>195.1879671340631</v>
+        <v>195.1879671340634</v>
       </c>
       <c r="M10" t="n">
-        <v>338.7253240694263</v>
+        <v>338.7253240694267</v>
       </c>
       <c r="N10" t="n">
-        <v>484.2842999004872</v>
+        <v>484.2842999004878</v>
       </c>
       <c r="O10" t="n">
-        <v>602.7152779689166</v>
+        <v>602.7152779689172</v>
       </c>
       <c r="P10" t="n">
-        <v>680.532757061259</v>
+        <v>680.5327570612598</v>
       </c>
       <c r="Q10" t="n">
-        <v>650.3743127873601</v>
+        <v>650.3743127873609</v>
       </c>
       <c r="R10" t="n">
-        <v>501.8294799428861</v>
+        <v>650.3743127873609</v>
       </c>
       <c r="S10" t="n">
-        <v>501.8294799428861</v>
+        <v>650.3743127873609</v>
       </c>
       <c r="T10" t="n">
-        <v>501.8294799428861</v>
+        <v>478.5226064587599</v>
       </c>
       <c r="U10" t="n">
-        <v>329.9777736142854</v>
+        <v>306.670900130159</v>
       </c>
       <c r="V10" t="n">
-        <v>182.6193108761343</v>
+        <v>306.670900130159</v>
       </c>
       <c r="W10" t="n">
-        <v>182.6193108761343</v>
+        <v>231.7449678608646</v>
       </c>
       <c r="X10" t="n">
-        <v>182.6193108761343</v>
+        <v>231.7449678608646</v>
       </c>
       <c r="Y10" t="n">
-        <v>182.6193108761343</v>
+        <v>59.8932615322636</v>
       </c>
     </row>
     <row r="11">
@@ -5035,10 +5035,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5050,10 +5050,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>2389.334518447046</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>2884.660124662805</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>3482.038612289356</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>3482.038612289356</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>917.5010142286973</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>748.5648313007904</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>1099.149479058937</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5269,61 +5269,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5345,34 +5345,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>949.9304447718133</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511905</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232836</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>584.5295404712656</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>436.6164468888725</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>436.6164468888725</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5472,16 +5472,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1130.19898568143</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>2876.560776129205</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3473.939263755757</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>4101.537227310363</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>4101.537227310363</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4525.160376805431</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>614.6217844681063</v>
+        <v>1051.964939354869</v>
       </c>
       <c r="C19" t="n">
-        <v>614.6217844681063</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>464.5051450557705</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1534.469549376854</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1245.052379339893</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X19" t="n">
-        <v>1017.062828441876</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y19" t="n">
-        <v>796.270249298346</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="20">
@@ -5746,10 +5746,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5764,31 +5764,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5837,22 +5837,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>929.7309773356195</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817745</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X22" t="n">
-        <v>1170.979132919728</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y22" t="n">
-        <v>950.1865537761979</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="23">
@@ -5977,16 +5977,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6004,22 +6004,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>913.2907898187001</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2268.660400464173</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2049.058935487114</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1759.983708831312</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1505.299220625425</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6545,22 +6545,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
         <v>484.8112968429803</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,7 +6697,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6730,19 +6730,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6779,28 +6779,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683105</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>962.6357307816187</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>793.6995478537118</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>643.582908441376</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>495.6698148589829</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6900,10 +6900,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.284195611858</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="U37" t="n">
-        <v>2091.550948547922</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.866460342035</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W37" t="n">
-        <v>1547.449290305074</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X37" t="n">
-        <v>1319.459739407057</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y37" t="n">
-        <v>1098.667160263527</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,16 +7162,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7183,37 +7183,37 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591809</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1671.859558793925</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>762.5477693179085</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>762.5477693179085</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>614.6346757355154</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>467.744728237605</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,22 +7402,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7438,22 +7438,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7496,22 +7496,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.7084350851671</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C43" t="n">
-        <v>527.7722521572603</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D43" t="n">
-        <v>527.7722521572603</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="E43" t="n">
-        <v>379.8591585748671</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="F43" t="n">
-        <v>232.9692110769568</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058937</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.3568999154069</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7663,37 +7663,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7721,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>951.7772127656206</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>782.841029837709</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>632.7243904253733</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7821,37 +7821,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603206</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>2227.361618603206</v>
       </c>
       <c r="V46" t="n">
-        <v>1755.431557602304</v>
+        <v>1972.677130397319</v>
       </c>
       <c r="W46" t="n">
-        <v>1466.014387565343</v>
+        <v>1683.259960360358</v>
       </c>
       <c r="X46" t="n">
-        <v>1238.024836667326</v>
+        <v>1455.270409462341</v>
       </c>
       <c r="Y46" t="n">
-        <v>1017.232257523796</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>258.8041889468121</v>
+        <v>256.7644825146879</v>
       </c>
       <c r="L2" t="n">
         <v>221.1666787354324</v>
       </c>
       <c r="M2" t="n">
-        <v>262.5442413612734</v>
+        <v>264.5839477933977</v>
       </c>
       <c r="N2" t="n">
-        <v>263.3879167614743</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O2" t="n">
         <v>264.993021668346</v>
       </c>
       <c r="P2" t="n">
-        <v>217.9290633046618</v>
+        <v>268.4117974997384</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8063,7 +8063,7 @@
         <v>180.3309306186853</v>
       </c>
       <c r="L3" t="n">
-        <v>127.8064787429921</v>
+        <v>176.2495065059443</v>
       </c>
       <c r="M3" t="n">
         <v>129.5917403577182</v>
@@ -8072,7 +8072,7 @@
         <v>118.4674613291454</v>
       </c>
       <c r="O3" t="n">
-        <v>179.2618479563565</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P3" t="n">
         <v>175.0047203318838</v>
@@ -8221,22 +8221,22 @@
         <v>202.1809638361346</v>
       </c>
       <c r="L5" t="n">
-        <v>267.3451747559029</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M5" t="n">
-        <v>259.4212368511231</v>
+        <v>252.0347206524205</v>
       </c>
       <c r="N5" t="n">
         <v>258.0880505088102</v>
       </c>
       <c r="O5" t="n">
-        <v>257.9995802262195</v>
+        <v>260.1731688314972</v>
       </c>
       <c r="P5" t="n">
-        <v>210.9873633211545</v>
+        <v>264.7836813017771</v>
       </c>
       <c r="Q5" t="n">
-        <v>207.1020630664798</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>179.4738158616228</v>
       </c>
       <c r="L6" t="n">
-        <v>175.9947778369091</v>
+        <v>167.4508656791093</v>
       </c>
       <c r="M6" t="n">
         <v>123.047446830095</v>
@@ -8309,13 +8309,13 @@
         <v>111.7499598249992</v>
       </c>
       <c r="O6" t="n">
-        <v>176.2963480628989</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P6" t="n">
         <v>173.3862381384502</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3661252938572</v>
+        <v>184.1624432744798</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>53.81818816105458</v>
+        <v>53.81818816105439</v>
       </c>
       <c r="K8" t="n">
-        <v>199.5416738613671</v>
+        <v>29.40848459605206</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>137.26407320866</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>132.0718040433888</v>
       </c>
       <c r="O8" t="n">
-        <v>147.6628633500766</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>125.4557828651642</v>
+        <v>173.9159582285056</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>8.328260291751462</v>
+        <v>178.4614495570662</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>134.5411173874632</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>52.60565216702948</v>
       </c>
       <c r="N9" t="n">
-        <v>92.87555912359051</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>94.27121043090297</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>207.7342274853339</v>
+        <v>37.60103822001901</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8929,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>-2.664766248652818e-14</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11317,7 +11317,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>32.92052192791161</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>2.216893335571513e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23655,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>47.7129014545667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>178.2123075861799</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>46.23519869957052</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>99.76050189075451</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>159.5809595057647</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.9259388694759139</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>99.26785128072173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>35.40333084624569</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>4.506629716718152</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>111.7546635373313</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>134.6711151870886</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>25.74504007796142</v>
       </c>
       <c r="U37" t="n">
-        <v>181.727993418995</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>16.89590291932151</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>66.51053793615074</v>
       </c>
       <c r="G43" t="n">
-        <v>27.76311574357376</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>115.0314858713441</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>45.37941682720574</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>852182.3658956144</v>
+        <v>852182.3658956143</v>
       </c>
     </row>
     <row r="5">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>813855.9833051419</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>813855.9833051417</v>
+        <v>813855.9833051418</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>813855.9833051417</v>
+        <v>813855.9833051419</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982122</v>
@@ -26322,19 +26322,19 @@
         <v>615781.3273982122</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="F2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="G2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="G2" t="n">
-        <v>605359.9497675046</v>
-      </c>
       <c r="H2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="J2" t="n">
         <v>605359.9497675044</v>
@@ -26343,19 +26343,19 @@
         <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675047</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="N2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="O2" t="n">
+        <v>605359.9497675039</v>
+      </c>
+      <c r="P2" t="n">
         <v>605359.9497675045</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.9497675044</v>
       </c>
     </row>
     <row r="3">
@@ -26371,7 +26371,7 @@
         <v>12004.91953871608</v>
       </c>
       <c r="D3" t="n">
-        <v>325486.3975543805</v>
+        <v>325486.397554381</v>
       </c>
       <c r="E3" t="n">
         <v>1098807.963756735</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>13208.50450573661</v>
+        <v>13208.50450573667</v>
       </c>
       <c r="K3" t="n">
         <v>852.8104317184398</v>
       </c>
       <c r="L3" t="n">
-        <v>29443.81509031401</v>
+        <v>29443.81509031406</v>
       </c>
       <c r="M3" t="n">
-        <v>249845.7249299113</v>
+        <v>249845.7249299112</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.19711258155959e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>392210.9417384904</v>
       </c>
       <c r="C4" t="n">
-        <v>389279.094329008</v>
+        <v>389279.0943290079</v>
       </c>
       <c r="D4" t="n">
-        <v>306360.6503278899</v>
+        <v>306360.6503278898</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.36846171964</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
@@ -26438,7 +26438,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719649</v>
       </c>
       <c r="J4" t="n">
         <v>7507.368461719667</v>
@@ -26447,19 +26447,19 @@
         <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719697</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719709</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719649</v>
+        <v>7507.368461719772</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>37661.87961689879</v>
       </c>
       <c r="D5" t="n">
-        <v>52100.52571241491</v>
+        <v>52100.52571241494</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>147277.8236154678</v>
+        <v>147277.8236154679</v>
       </c>
       <c r="C6" t="n">
-        <v>176835.4339135893</v>
+        <v>176835.4339135894</v>
       </c>
       <c r="D6" t="n">
-        <v>-68166.24619647316</v>
+        <v>-68166.24619647354</v>
       </c>
       <c r="E6" t="n">
-        <v>-602077.912274858</v>
+        <v>-602425.2915292144</v>
       </c>
       <c r="F6" t="n">
-        <v>496730.0514818778</v>
+        <v>496382.6722275207</v>
       </c>
       <c r="G6" t="n">
-        <v>496730.0514818776</v>
+        <v>496382.6722275206</v>
       </c>
       <c r="H6" t="n">
-        <v>496730.0514818776</v>
+        <v>496382.6722275206</v>
       </c>
       <c r="I6" t="n">
-        <v>496730.0514818776</v>
+        <v>496382.6722275207</v>
       </c>
       <c r="J6" t="n">
-        <v>483521.5469761409</v>
+        <v>483174.1677217839</v>
       </c>
       <c r="K6" t="n">
-        <v>495877.2410501589</v>
+        <v>495529.861795802</v>
       </c>
       <c r="L6" t="n">
-        <v>467286.2363915634</v>
+        <v>466938.8571372065</v>
       </c>
       <c r="M6" t="n">
-        <v>246884.3265519666</v>
+        <v>246536.9472976092</v>
       </c>
       <c r="N6" t="n">
-        <v>496730.0514818776</v>
+        <v>496382.6722275206</v>
       </c>
       <c r="O6" t="n">
-        <v>496730.0514818777</v>
+        <v>496382.6722275201</v>
       </c>
       <c r="P6" t="n">
-        <v>496730.0514818777</v>
+        <v>496382.6722275206</v>
       </c>
     </row>
   </sheetData>
@@ -26724,10 +26724,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26743,7 +26743,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>372.8820094075127</v>
+        <v>372.8820094075132</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>53.79631798062264</v>
       </c>
       <c r="D4" t="n">
-        <v>170.1331892653147</v>
+        <v>170.1331892653149</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>12.007878032336</v>
       </c>
       <c r="D3" t="n">
-        <v>337.8607486883874</v>
+        <v>337.8607486883879</v>
       </c>
       <c r="E3" t="n">
-        <v>995.0934909341611</v>
+        <v>995.0934909341605</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,16 +27017,16 @@
         <v>3.313583785546101</v>
       </c>
       <c r="D4" t="n">
-        <v>116.3368712846921</v>
+        <v>116.3368712846923</v>
       </c>
       <c r="E4" t="n">
-        <v>1002.575098834334</v>
+        <v>1002.575098834333</v>
       </c>
       <c r="F4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>50.48273419507655</v>
+        <v>50.48273419507677</v>
       </c>
       <c r="K4" t="n">
         <v>3.313583785546143</v>
       </c>
       <c r="L4" t="n">
-        <v>116.3368712846921</v>
+        <v>116.3368712846923</v>
       </c>
       <c r="M4" t="n">
-        <v>1002.575098834334</v>
+        <v>1002.575098834333</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,16 +27263,16 @@
         <v>3.313583785546101</v>
       </c>
       <c r="L4" t="n">
-        <v>116.3368712846921</v>
+        <v>116.3368712846923</v>
       </c>
       <c r="M4" t="n">
-        <v>1002.575098834334</v>
+        <v>1002.575098834333</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>331.4476358771852</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>320.2454964102499</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I2" t="n">
-        <v>206.909162189371</v>
+        <v>188.6273371087425</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644702</v>
+        <v>93.57486856939362</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>156.4291245048363</v>
       </c>
       <c r="T2" t="n">
-        <v>172.208126091823</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
-        <v>200.8555174238556</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>298.7582345223365</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27463,10 +27463,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>102.9798732856154</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>107.1623462603244</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,10 +27475,10 @@
         <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>111.757373777286</v>
+        <v>61.27463958220945</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828964</v>
+        <v>37.20960569321311</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,19 +27508,19 @@
         <v>97.08446202703757</v>
       </c>
       <c r="S3" t="n">
-        <v>126.298529054262</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
         <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>175.4553912751407</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
-        <v>182.3178529543487</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>201.2122489658431</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27545,13 +27545,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>138.047096124824</v>
       </c>
       <c r="F4" t="n">
         <v>94.9383138278547</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9494798159088</v>
+        <v>117.4667456208323</v>
       </c>
       <c r="H4" t="n">
         <v>111.3754696522371</v>
@@ -27560,10 +27560,10 @@
         <v>154.2024705022108</v>
       </c>
       <c r="J4" t="n">
-        <v>49.00356126028586</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>359.492248864379</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>361.3656305466968</v>
       </c>
       <c r="H5" t="n">
-        <v>284.2366289136782</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I5" t="n">
-        <v>205.0481221176458</v>
+        <v>151.2518041370232</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V5" t="n">
-        <v>302.4064558618334</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>315.9347826978464</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>119.1493867725349</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>93.64874758401612</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27715,7 +27715,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I6" t="n">
-        <v>33.00675924206475</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S6" t="n">
-        <v>122.9001757440007</v>
+        <v>116.4876546407105</v>
       </c>
       <c r="T6" t="n">
         <v>146.0647829915492</v>
@@ -27754,7 +27754,7 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>179.0042691688026</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27785,22 +27785,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>92.81474068201067</v>
       </c>
       <c r="G7" t="n">
         <v>167.9278262653587</v>
       </c>
       <c r="H7" t="n">
-        <v>161.6656840978772</v>
+        <v>107.8693661172546</v>
       </c>
       <c r="I7" t="n">
-        <v>153.551289182031</v>
+        <v>99.75497120140832</v>
       </c>
       <c r="J7" t="n">
-        <v>35.09793845387575</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K7" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27824,10 +27824,10 @@
         <v>174.4537986637794</v>
       </c>
       <c r="S7" t="n">
-        <v>169.119693879324</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T7" t="n">
-        <v>173.8794355044132</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U7" t="n">
         <v>286.3155846423218</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>272.780758330581</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,16 +27855,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>195.1397025056926</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>274.3395476591046</v>
       </c>
       <c r="E8" t="n">
-        <v>245.8807713291106</v>
+        <v>211.7971808069468</v>
       </c>
       <c r="F8" t="n">
-        <v>236.7428564763967</v>
+        <v>236.7428564763965</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>324.1229312460397</v>
       </c>
       <c r="I8" t="n">
-        <v>152.6847994490667</v>
+        <v>152.6847994490666</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>55.7061047815731</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.8610794782104</v>
+        <v>174.8610794782103</v>
       </c>
       <c r="T8" t="n">
         <v>216.5338757101358</v>
@@ -27912,10 +27912,10 @@
         <v>251.2257310555647</v>
       </c>
       <c r="V8" t="n">
-        <v>157.6190692048202</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>179.1077794520983</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27931,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>2.5753097230008</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27946,13 +27946,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.5414690675039</v>
       </c>
       <c r="H9" t="n">
         <v>104.4893481542762</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>61.78225762642471</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.36049712271151</v>
+        <v>50.36049712271144</v>
       </c>
       <c r="S9" t="n">
         <v>156.785479501566</v>
       </c>
       <c r="T9" t="n">
-        <v>26.79872276303985</v>
+        <v>196.9319120283546</v>
       </c>
       <c r="U9" t="n">
         <v>225.8886157588888</v>
       </c>
       <c r="V9" t="n">
-        <v>111.13781147315</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>81.56179389560486</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>199.7647320477793</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>35.54950651198942</v>
       </c>
     </row>
     <row r="10">
@@ -28025,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.31856917756</v>
       </c>
       <c r="H10" t="n">
-        <v>156.2488347172667</v>
+        <v>156.2488347172666</v>
       </c>
       <c r="I10" t="n">
         <v>135.2292669416836</v>
       </c>
       <c r="J10" t="n">
-        <v>45.81978032712809</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>147.0593845160292</v>
       </c>
       <c r="S10" t="n">
         <v>212.2983224298542</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0725641098958</v>
+        <v>54.93937484458081</v>
       </c>
       <c r="U10" t="n">
-        <v>116.149163172218</v>
+        <v>116.1491631722178</v>
       </c>
       <c r="V10" t="n">
-        <v>106.2527652130584</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>212.3463253899895</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>48.45146408677985</v>
       </c>
     </row>
     <row r="11">
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
     </row>
     <row r="42">
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
     </row>
     <row r="45">
@@ -30857,7 +30857,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -30893,7 +30893,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>4.571293608196788e-12</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.499023153397035</v>
+        <v>1.499023153397037</v>
       </c>
       <c r="H8" t="n">
-        <v>15.35187086972739</v>
+        <v>15.35187086972741</v>
       </c>
       <c r="I8" t="n">
-        <v>57.79109012133924</v>
+        <v>57.79109012133932</v>
       </c>
       <c r="J8" t="n">
-        <v>127.2277163656317</v>
+        <v>127.2277163656319</v>
       </c>
       <c r="K8" t="n">
-        <v>190.6813664489282</v>
+        <v>190.6813664489285</v>
       </c>
       <c r="L8" t="n">
-        <v>236.5570962797028</v>
+        <v>236.5570962797031</v>
       </c>
       <c r="M8" t="n">
-        <v>263.2153492839273</v>
+        <v>263.2153492839277</v>
       </c>
       <c r="N8" t="n">
-        <v>267.4744488185166</v>
+        <v>267.474448818517</v>
       </c>
       <c r="O8" t="n">
-        <v>252.5685373369249</v>
+        <v>252.5685373369252</v>
       </c>
       <c r="P8" t="n">
-        <v>215.5614032374355</v>
+        <v>215.5614032374358</v>
       </c>
       <c r="Q8" t="n">
-        <v>161.8776365564042</v>
+        <v>161.8776365564044</v>
       </c>
       <c r="R8" t="n">
-        <v>94.16301315957658</v>
+        <v>94.16301315957671</v>
       </c>
       <c r="S8" t="n">
-        <v>34.15899010803497</v>
+        <v>34.15899010803501</v>
       </c>
       <c r="T8" t="n">
-        <v>6.561973853995524</v>
+        <v>6.561973853995533</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1199218522717628</v>
+        <v>0.1199218522717629</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8020480957067255</v>
+        <v>0.8020480957067266</v>
       </c>
       <c r="H9" t="n">
-        <v>7.746096082220219</v>
+        <v>7.746096082220229</v>
       </c>
       <c r="I9" t="n">
-        <v>27.61437522499033</v>
+        <v>27.61437522499037</v>
       </c>
       <c r="J9" t="n">
-        <v>75.77595627025691</v>
+        <v>75.77595627025703</v>
       </c>
       <c r="K9" t="n">
-        <v>129.5131786826075</v>
+        <v>129.5131786826077</v>
       </c>
       <c r="L9" t="n">
-        <v>174.1464516577257</v>
+        <v>174.1464516577259</v>
       </c>
       <c r="M9" t="n">
-        <v>203.2206951270944</v>
+        <v>203.2206951270947</v>
       </c>
       <c r="N9" t="n">
-        <v>208.5993422250575</v>
+        <v>208.5993422250578</v>
       </c>
       <c r="O9" t="n">
-        <v>190.8276449465032</v>
+        <v>190.8276449465035</v>
       </c>
       <c r="P9" t="n">
-        <v>153.1560087319273</v>
+        <v>153.1560087319275</v>
       </c>
       <c r="Q9" t="n">
-        <v>102.3807358660024</v>
+        <v>102.3807358660025</v>
       </c>
       <c r="R9" t="n">
-        <v>49.79733702993163</v>
+        <v>49.7973370299317</v>
       </c>
       <c r="S9" t="n">
-        <v>14.89769160227184</v>
+        <v>14.89769160227186</v>
       </c>
       <c r="T9" t="n">
-        <v>3.232816666467019</v>
+        <v>3.232816666467024</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05276632208596881</v>
+        <v>0.05276632208596888</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6724101808987933</v>
+        <v>0.6724101808987942</v>
       </c>
       <c r="H10" t="n">
-        <v>5.978337790172913</v>
+        <v>5.978337790172921</v>
       </c>
       <c r="I10" t="n">
-        <v>20.22120798557463</v>
+        <v>20.22120798557466</v>
       </c>
       <c r="J10" t="n">
-        <v>47.53939978954469</v>
+        <v>47.53939978954475</v>
       </c>
       <c r="K10" t="n">
-        <v>78.12183738078707</v>
+        <v>78.12183738078717</v>
       </c>
       <c r="L10" t="n">
-        <v>99.96905544017153</v>
+        <v>99.96905544017167</v>
       </c>
       <c r="M10" t="n">
-        <v>105.403352265799</v>
+        <v>105.4033522657992</v>
       </c>
       <c r="N10" t="n">
-        <v>102.8970961369945</v>
+        <v>102.8970961369947</v>
       </c>
       <c r="O10" t="n">
-        <v>95.0421226601313</v>
+        <v>95.04212266013143</v>
       </c>
       <c r="P10" t="n">
-        <v>81.32495496979585</v>
+        <v>81.32495496979595</v>
       </c>
       <c r="Q10" t="n">
-        <v>56.30518342053442</v>
+        <v>56.3051834205345</v>
       </c>
       <c r="R10" t="n">
-        <v>30.23400686114028</v>
+        <v>30.23400686114033</v>
       </c>
       <c r="S10" t="n">
-        <v>11.71827560711806</v>
+        <v>11.71827560711808</v>
       </c>
       <c r="T10" t="n">
-        <v>2.873025318385753</v>
+        <v>2.873025318385757</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03667691895811605</v>
+        <v>0.0366769189581161</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31843,7 +31843,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>144.2373595085334</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31852,16 +31852,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32080,13 +32080,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L15" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32095,7 +32095,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32326,16 +32326,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>307.3280120589129</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32557,25 +32557,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>501.1621040024322</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,19 +32785,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L24" t="n">
-        <v>476.0648089385468</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32806,13 +32806,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33028,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,7 +33037,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33046,7 +33046,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33499,31 +33499,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>454.1257695262137</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33736,10 +33736,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>138.5955196772184</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>653.3850396373771</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33985,16 +33985,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>369.1789913099997</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34216,10 +34216,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>210.3948924365567</v>
+        <v>245.8118639189582</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34228,13 +34228,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,31 +34444,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>396.970088694367</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>48.44302776295223</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>50.48273419507654</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>48.44302776295223</v>
-      </c>
       <c r="N2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>50.48273419507654</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>50.48273419507654</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48.44302776295223</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,7 +34792,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>48.44302776295223</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>50.48273419507654</v>
@@ -34941,22 +34941,22 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>53.79631798062264</v>
+        <v>46.40980178192011</v>
       </c>
       <c r="N5" t="n">
         <v>53.79631798062264</v>
       </c>
       <c r="O5" t="n">
-        <v>51.62272937534497</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K6" t="n">
         <v>53.79631798062264</v>
       </c>
       <c r="L6" t="n">
-        <v>53.79631798062264</v>
+        <v>45.25240582282281</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>51.62272937534495</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>53.79631798062264</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>170.1331892653147</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7906813097155521</v>
+        <v>0.7906813097158931</v>
       </c>
       <c r="M8" t="n">
-        <v>32.86911605665458</v>
+        <v>170.1331892653149</v>
       </c>
       <c r="N8" t="n">
-        <v>38.06138522192572</v>
+        <v>170.1331892653149</v>
       </c>
       <c r="O8" t="n">
-        <v>170.1331892653147</v>
+        <v>22.47032591523848</v>
       </c>
       <c r="P8" t="n">
-        <v>109.7841903473302</v>
+        <v>158.2443657106719</v>
       </c>
       <c r="Q8" t="n">
-        <v>151.8869373418594</v>
+        <v>151.8869373418596</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>75.02936494399906</v>
+        <v>75.02936494399917</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>170.1331892653149</v>
       </c>
       <c r="L9" t="n">
-        <v>35.59207187785148</v>
+        <v>170.1331892653149</v>
       </c>
       <c r="M9" t="n">
-        <v>61.0866612050761</v>
+        <v>113.6923133721059</v>
       </c>
       <c r="N9" t="n">
-        <v>170.1331892653147</v>
+        <v>77.25763014172452</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23140050205879</v>
+        <v>48.23140050205905</v>
       </c>
       <c r="P9" t="n">
-        <v>113.4528117485</v>
+        <v>19.18160131759723</v>
       </c>
       <c r="Q9" t="n">
-        <v>170.1331892653147</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>55.85234555490422</v>
+        <v>55.85234555490432</v>
       </c>
       <c r="L10" t="n">
-        <v>127.5590807004877</v>
+        <v>127.5590807004878</v>
       </c>
       <c r="M10" t="n">
-        <v>144.9872292276396</v>
+        <v>144.9872292276398</v>
       </c>
       <c r="N10" t="n">
-        <v>147.0292685162231</v>
+        <v>147.0292685162233</v>
       </c>
       <c r="O10" t="n">
-        <v>119.627250574171</v>
+        <v>119.6272505741711</v>
       </c>
       <c r="P10" t="n">
-        <v>78.60351423468934</v>
+        <v>78.60351423468944</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>6.395920534174421</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35500,16 +35500,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367757</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
@@ -35728,13 +35728,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L15" t="n">
-        <v>376.3054212373396</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35743,7 +35743,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35904,10 +35904,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35974,16 +35974,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>167.3462379728913</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36132,10 +36132,10 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819351</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>369.8203919190989</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36369,7 +36369,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36378,7 +36378,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36433,19 +36433,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L24" t="n">
-        <v>337.5104291586726</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36454,13 +36454,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36615,7 +36615,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36676,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,7 +36685,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36694,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>311.9917356041954</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.7540807028594299</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>510.7887951929326</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902961</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37633,16 +37633,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>226.5827468655553</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37864,10 +37864,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>68.26085851453838</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37876,13 +37876,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38037,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>254.8360547723487</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
@@ -38189,7 +38189,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.26189970605</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_11_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_11_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2255078.258807194</v>
+        <v>2256838.789109979</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283195</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.21022140383137</v>
+        <v>33.49204648445981</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18.28182508062843</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>4.097100052852174</v>
@@ -709,13 +709,13 @@
         <v>50.48273419507654</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>50.48273419507654</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="D3" t="n">
-        <v>44.4651922790234</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>50.48273419507654</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>44.4651922790234</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>8.386866521745219</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>50.48273419507654</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>8.386866521745219</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>25.34580260830151</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>47.38379687733241</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>53.79631798062264</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -974,29 +974,29 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>47.38379687733242</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
     </row>
     <row r="7">
@@ -1059,22 +1059,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>52.60630734092062</v>
       </c>
       <c r="F7" t="n">
-        <v>52.60630734092059</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1135,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>170.1331892653149</v>
+        <v>80.34349396157769</v>
       </c>
       <c r="D8" t="n">
-        <v>80.34349396157837</v>
+        <v>170.1331892653145</v>
       </c>
       <c r="E8" t="n">
-        <v>170.1331892653149</v>
+        <v>170.1331892653145</v>
       </c>
       <c r="F8" t="n">
-        <v>170.1331892653149</v>
+        <v>170.1331892653145</v>
       </c>
       <c r="G8" t="n">
-        <v>13.80371436173801</v>
+        <v>13.80371436173802</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>55.70610478157298</v>
+        <v>55.70610478157327</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1214,7 +1214,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>170.1331892653149</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>6.008253155697412</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>170.1331892653145</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>6.00825315569815</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>170.1331892653149</v>
+        <v>170.1331892653145</v>
       </c>
     </row>
     <row r="10">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>170.1331892653145</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.81978032712802</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.85685983115989</v>
+        <v>29.85685983116007</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>170.1331892653149</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>170.1331892653149</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>74.17667294660149</v>
+        <v>119.9964532737289</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>170.1331892653145</v>
       </c>
       <c r="Y10" t="n">
-        <v>170.1331892653149</v>
+        <v>170.1331892653145</v>
       </c>
     </row>
     <row r="11">
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444131</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1767,19 +1767,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>108.3106907504065</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>117.8112368377021</v>
+        <v>165.5241382922734</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1824,16 +1824,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>121.0116223990573</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>11.56087338713362</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444131</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>93.62264337260203</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5981994227929</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2329,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701341</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>107.3870054807226</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>110.0177171766856</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>113.6427030833203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>82.4729044930077</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3082,10 +3082,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3319,10 +3319,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>88.86833396296423</v>
       </c>
       <c r="T37" t="n">
-        <v>191.6604102493268</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3556,10 +3556,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428166</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3903,16 +3903,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>78.9105100867805</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>51.36569740310314</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206829</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>61.66004604094911</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>173.205236524889</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4321,10 +4321,10 @@
         <v>42.00745362177985</v>
       </c>
       <c r="G2" t="n">
-        <v>26.64359361790977</v>
+        <v>8.177103637477007</v>
       </c>
       <c r="H2" t="n">
-        <v>26.64359361790977</v>
+        <v>8.177103637477007</v>
       </c>
       <c r="I2" t="n">
         <v>8.177103637477007</v>
@@ -4333,16 +4333,16 @@
         <v>4.038618735606123</v>
       </c>
       <c r="K2" t="n">
-        <v>51.99721622092883</v>
+        <v>54.01652558873189</v>
       </c>
       <c r="L2" t="n">
-        <v>51.99721622092883</v>
+        <v>103.9944324418577</v>
       </c>
       <c r="M2" t="n">
-        <v>101.9751230740546</v>
+        <v>151.9530299271804</v>
       </c>
       <c r="N2" t="n">
-        <v>101.9751230740546</v>
+        <v>151.9530299271804</v>
       </c>
       <c r="O2" t="n">
         <v>151.9530299271804</v>
@@ -4357,10 +4357,10 @@
         <v>150.9382759771985</v>
       </c>
       <c r="S2" t="n">
-        <v>99.94561517409093</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="T2" t="n">
-        <v>99.94561517409093</v>
+        <v>150.9382759771985</v>
       </c>
       <c r="U2" t="n">
         <v>99.94561517409093</v>
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>201.9309367803062</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="C3" t="n">
-        <v>201.9309367803062</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="D3" t="n">
-        <v>157.016601144929</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="E3" t="n">
-        <v>106.0239403418214</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="F3" t="n">
-        <v>106.0239403418214</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="G3" t="n">
-        <v>106.0239403418214</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="H3" t="n">
         <v>55.03127953871374</v>
@@ -4409,10 +4409,10 @@
         <v>4.038618735606123</v>
       </c>
       <c r="J3" t="n">
-        <v>4.038618735606123</v>
+        <v>7.929436376304878</v>
       </c>
       <c r="K3" t="n">
-        <v>54.01652558873189</v>
+        <v>57.90734322943065</v>
       </c>
       <c r="L3" t="n">
         <v>101.9751230740546</v>
@@ -4424,7 +4424,7 @@
         <v>101.9751230740546</v>
       </c>
       <c r="O3" t="n">
-        <v>101.9751230740546</v>
+        <v>151.9530299271804</v>
       </c>
       <c r="P3" t="n">
         <v>151.9530299271804</v>
@@ -4448,13 +4448,13 @@
         <v>201.9309367803062</v>
       </c>
       <c r="W3" t="n">
-        <v>201.9309367803062</v>
+        <v>157.016601144929</v>
       </c>
       <c r="X3" t="n">
-        <v>201.9309367803062</v>
+        <v>157.016601144929</v>
       </c>
       <c r="Y3" t="n">
-        <v>201.9309367803062</v>
+        <v>157.016601144929</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165.4881834901262</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="C4" t="n">
-        <v>165.4881834901262</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="D4" t="n">
-        <v>165.4881834901262</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="E4" t="n">
-        <v>157.016601144929</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="F4" t="n">
         <v>106.0239403418214</v>
@@ -4533,7 +4533,7 @@
         <v>165.4881834901262</v>
       </c>
       <c r="Y4" t="n">
-        <v>165.4881834901262</v>
+        <v>157.016601144929</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>160.8455567905485</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="C5" t="n">
-        <v>160.8455567905485</v>
+        <v>52.16612652666438</v>
       </c>
       <c r="D5" t="n">
-        <v>160.8455567905485</v>
+        <v>26.56430571019821</v>
       </c>
       <c r="E5" t="n">
-        <v>160.8455567905485</v>
+        <v>26.56430571019821</v>
       </c>
       <c r="F5" t="n">
-        <v>112.9831357023339</v>
+        <v>19.61880496099473</v>
       </c>
       <c r="G5" t="n">
-        <v>58.64342057039187</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="H5" t="n">
-        <v>58.64342057039187</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="I5" t="n">
         <v>4.303705438449811</v>
@@ -4570,19 +4570,19 @@
         <v>4.303705438449811</v>
       </c>
       <c r="K5" t="n">
-        <v>4.303705438449811</v>
+        <v>57.56206023926622</v>
       </c>
       <c r="L5" t="n">
-        <v>4.303705438449811</v>
+        <v>110.8204150400826</v>
       </c>
       <c r="M5" t="n">
-        <v>50.24940920255072</v>
+        <v>110.8204150400826</v>
       </c>
       <c r="N5" t="n">
-        <v>103.5077640033671</v>
+        <v>164.078769840899</v>
       </c>
       <c r="O5" t="n">
-        <v>156.7661188041835</v>
+        <v>210.024473605</v>
       </c>
       <c r="P5" t="n">
         <v>210.024473605</v>
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.303705438449811</v>
+        <v>52.16612652666438</v>
       </c>
       <c r="C6" t="n">
-        <v>4.303705438449811</v>
+        <v>52.16612652666438</v>
       </c>
       <c r="D6" t="n">
-        <v>4.303705438449811</v>
+        <v>52.16612652666438</v>
       </c>
       <c r="E6" t="n">
-        <v>4.303705438449811</v>
+        <v>52.16612652666438</v>
       </c>
       <c r="F6" t="n">
-        <v>4.303705438449811</v>
+        <v>52.16612652666438</v>
       </c>
       <c r="G6" t="n">
-        <v>4.303705438449811</v>
+        <v>52.16612652666438</v>
       </c>
       <c r="H6" t="n">
-        <v>4.303705438449811</v>
+        <v>52.16612652666438</v>
       </c>
       <c r="I6" t="n">
         <v>4.303705438449811</v>
@@ -4649,19 +4649,19 @@
         <v>10.61032575544672</v>
       </c>
       <c r="K6" t="n">
+        <v>10.61032575544672</v>
+      </c>
+      <c r="L6" t="n">
         <v>63.86868055626314</v>
       </c>
-      <c r="L6" t="n">
-        <v>108.6685623208577</v>
-      </c>
       <c r="M6" t="n">
-        <v>108.6685623208577</v>
+        <v>63.86868055626314</v>
       </c>
       <c r="N6" t="n">
-        <v>108.6685623208577</v>
+        <v>63.86868055626314</v>
       </c>
       <c r="O6" t="n">
-        <v>108.6685623208577</v>
+        <v>117.1270353570795</v>
       </c>
       <c r="P6" t="n">
         <v>161.9269171216741</v>
@@ -4673,22 +4673,22 @@
         <v>215.1852719224906</v>
       </c>
       <c r="S6" t="n">
+        <v>215.1852719224906</v>
+      </c>
+      <c r="T6" t="n">
+        <v>215.1852719224906</v>
+      </c>
+      <c r="U6" t="n">
+        <v>215.1852719224906</v>
+      </c>
+      <c r="V6" t="n">
         <v>160.8455567905485</v>
       </c>
-      <c r="T6" t="n">
+      <c r="W6" t="n">
+        <v>160.8455567905485</v>
+      </c>
+      <c r="X6" t="n">
         <v>106.5058416586064</v>
-      </c>
-      <c r="U6" t="n">
-        <v>106.5058416586064</v>
-      </c>
-      <c r="V6" t="n">
-        <v>52.16612652666438</v>
-      </c>
-      <c r="W6" t="n">
-        <v>52.16612652666438</v>
-      </c>
-      <c r="X6" t="n">
-        <v>52.16612652666438</v>
       </c>
       <c r="Y6" t="n">
         <v>52.16612652666438</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="C7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="D7" t="n">
-        <v>181.2039013453972</v>
+        <v>72.52447108151307</v>
       </c>
       <c r="E7" t="n">
-        <v>181.2039013453972</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="F7" t="n">
-        <v>128.0662171626491</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="G7" t="n">
-        <v>128.0662171626491</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="H7" t="n">
-        <v>73.72650203070704</v>
+        <v>19.38678689876497</v>
       </c>
       <c r="I7" t="n">
         <v>19.38678689876497</v>
@@ -4746,31 +4746,31 @@
         <v>181.2039013453972</v>
       </c>
       <c r="Q7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="R7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="S7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="T7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="U7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="V7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="W7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="X7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="Y7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>624.2639643526002</v>
+        <v>624.2639643525981</v>
       </c>
       <c r="C8" t="n">
-        <v>452.4122580239992</v>
+        <v>543.1089199469641</v>
       </c>
       <c r="D8" t="n">
-        <v>371.2572136183645</v>
+        <v>371.2572136183636</v>
       </c>
       <c r="E8" t="n">
-        <v>199.4055072897635</v>
+        <v>199.4055072897631</v>
       </c>
       <c r="F8" t="n">
-        <v>27.55380096116258</v>
+        <v>27.55380096116255</v>
       </c>
       <c r="G8" t="n">
-        <v>13.61065514122519</v>
+        <v>13.61065514122516</v>
       </c>
       <c r="H8" t="n">
-        <v>13.61065514122519</v>
+        <v>13.61065514122516</v>
       </c>
       <c r="I8" t="n">
-        <v>13.61065514122519</v>
+        <v>13.61065514122516</v>
       </c>
       <c r="J8" t="n">
-        <v>13.61065514122519</v>
+        <v>127.7362978821339</v>
       </c>
       <c r="K8" t="n">
-        <v>13.61065514122519</v>
+        <v>127.7362978821339</v>
       </c>
       <c r="L8" t="n">
-        <v>14.39342963784393</v>
+        <v>128.5190723787519</v>
       </c>
       <c r="M8" t="n">
-        <v>182.8252870105057</v>
+        <v>161.0594972748394</v>
       </c>
       <c r="N8" t="n">
-        <v>351.2571443831675</v>
+        <v>198.7402686445454</v>
       </c>
       <c r="O8" t="n">
-        <v>373.5027670392536</v>
+        <v>361.7328317201562</v>
       </c>
       <c r="P8" t="n">
-        <v>530.1646890928188</v>
+        <v>530.1646890928175</v>
       </c>
       <c r="Q8" t="n">
-        <v>680.5327570612598</v>
+        <v>680.5327570612579</v>
       </c>
       <c r="R8" t="n">
-        <v>624.2639643526002</v>
+        <v>624.2639643525981</v>
       </c>
       <c r="S8" t="n">
-        <v>624.2639643526002</v>
+        <v>624.2639643525981</v>
       </c>
       <c r="T8" t="n">
-        <v>624.2639643526002</v>
+        <v>624.2639643525981</v>
       </c>
       <c r="U8" t="n">
-        <v>624.2639643526002</v>
+        <v>624.2639643525981</v>
       </c>
       <c r="V8" t="n">
-        <v>624.2639643526002</v>
+        <v>624.2639643525981</v>
       </c>
       <c r="W8" t="n">
-        <v>624.2639643526002</v>
+        <v>624.2639643525981</v>
       </c>
       <c r="X8" t="n">
-        <v>624.2639643526002</v>
+        <v>624.2639643525981</v>
       </c>
       <c r="Y8" t="n">
-        <v>624.2639643526002</v>
+        <v>624.2639643525981</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>334.3967711310775</v>
+        <v>168.614007383989</v>
       </c>
       <c r="C9" t="n">
-        <v>162.5450648024765</v>
+        <v>168.614007383989</v>
       </c>
       <c r="D9" t="n">
-        <v>13.61065514122519</v>
+        <v>19.6795977227377</v>
       </c>
       <c r="E9" t="n">
-        <v>13.61065514122519</v>
+        <v>19.6795977227377</v>
       </c>
       <c r="F9" t="n">
-        <v>13.61065514122519</v>
+        <v>13.61065514122516</v>
       </c>
       <c r="G9" t="n">
-        <v>13.61065514122519</v>
+        <v>13.61065514122516</v>
       </c>
       <c r="H9" t="n">
-        <v>13.61065514122519</v>
+        <v>13.61065514122516</v>
       </c>
       <c r="I9" t="n">
-        <v>13.61065514122519</v>
+        <v>13.61065514122516</v>
       </c>
       <c r="J9" t="n">
-        <v>87.88972643578437</v>
+        <v>13.61065514122516</v>
       </c>
       <c r="K9" t="n">
-        <v>256.3215838084462</v>
+        <v>13.61065514122516</v>
       </c>
       <c r="L9" t="n">
-        <v>424.753441181108</v>
+        <v>48.84680630029781</v>
       </c>
       <c r="M9" t="n">
-        <v>537.3088314194928</v>
+        <v>156.2473996388532</v>
       </c>
       <c r="N9" t="n">
-        <v>613.7938852598</v>
+        <v>324.6792570115146</v>
       </c>
       <c r="O9" t="n">
-        <v>661.5429717568385</v>
+        <v>493.1111143841759</v>
       </c>
       <c r="P9" t="n">
-        <v>680.5327570612598</v>
+        <v>512.1008996885967</v>
       </c>
       <c r="Q9" t="n">
-        <v>680.5327570612598</v>
+        <v>680.5327570612579</v>
       </c>
       <c r="R9" t="n">
-        <v>680.5327570612598</v>
+        <v>680.5327570612579</v>
       </c>
       <c r="S9" t="n">
-        <v>680.5327570612598</v>
+        <v>680.5327570612579</v>
       </c>
       <c r="T9" t="n">
-        <v>680.5327570612598</v>
+        <v>508.6810507326575</v>
       </c>
       <c r="U9" t="n">
-        <v>680.5327570612598</v>
+        <v>508.6810507326575</v>
       </c>
       <c r="V9" t="n">
-        <v>680.5327570612598</v>
+        <v>508.6810507326575</v>
       </c>
       <c r="W9" t="n">
-        <v>680.5327570612598</v>
+        <v>508.6810507326575</v>
       </c>
       <c r="X9" t="n">
-        <v>674.4638144797465</v>
+        <v>508.6810507326575</v>
       </c>
       <c r="Y9" t="n">
-        <v>502.6121081511455</v>
+        <v>336.829344404057</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.8932615322636</v>
+        <v>13.61065514122516</v>
       </c>
       <c r="C10" t="n">
-        <v>59.8932615322636</v>
+        <v>13.61065514122516</v>
       </c>
       <c r="D10" t="n">
-        <v>59.8932615322636</v>
+        <v>13.61065514122516</v>
       </c>
       <c r="E10" t="n">
-        <v>59.8932615322636</v>
+        <v>13.61065514122516</v>
       </c>
       <c r="F10" t="n">
-        <v>59.8932615322636</v>
+        <v>13.61065514122516</v>
       </c>
       <c r="G10" t="n">
-        <v>59.8932615322636</v>
+        <v>13.61065514122516</v>
       </c>
       <c r="H10" t="n">
-        <v>59.8932615322636</v>
+        <v>13.61065514122516</v>
       </c>
       <c r="I10" t="n">
-        <v>59.8932615322636</v>
+        <v>13.61065514122516</v>
       </c>
       <c r="J10" t="n">
-        <v>13.61065514122519</v>
+        <v>13.61065514122516</v>
       </c>
       <c r="K10" t="n">
-        <v>68.90447724058049</v>
+        <v>68.90447724058021</v>
       </c>
       <c r="L10" t="n">
-        <v>195.1879671340634</v>
+        <v>195.1879671340628</v>
       </c>
       <c r="M10" t="n">
-        <v>338.7253240694267</v>
+        <v>338.7253240694258</v>
       </c>
       <c r="N10" t="n">
-        <v>484.2842999004878</v>
+        <v>484.2842999004865</v>
       </c>
       <c r="O10" t="n">
-        <v>602.7152779689172</v>
+        <v>602.7152779689156</v>
       </c>
       <c r="P10" t="n">
-        <v>680.5327570612598</v>
+        <v>680.5327570612579</v>
       </c>
       <c r="Q10" t="n">
-        <v>650.3743127873609</v>
+        <v>650.3743127873589</v>
       </c>
       <c r="R10" t="n">
-        <v>650.3743127873609</v>
+        <v>650.3743127873589</v>
       </c>
       <c r="S10" t="n">
-        <v>650.3743127873609</v>
+        <v>650.3743127873589</v>
       </c>
       <c r="T10" t="n">
-        <v>478.5226064587599</v>
+        <v>650.3743127873589</v>
       </c>
       <c r="U10" t="n">
-        <v>306.670900130159</v>
+        <v>650.3743127873589</v>
       </c>
       <c r="V10" t="n">
-        <v>306.670900130159</v>
+        <v>650.3743127873589</v>
       </c>
       <c r="W10" t="n">
-        <v>231.7449678608646</v>
+        <v>529.1657741270267</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7449678608646</v>
+        <v>357.3140677984262</v>
       </c>
       <c r="Y10" t="n">
-        <v>59.8932615322636</v>
+        <v>185.4623614698257</v>
       </c>
     </row>
     <row r="11">
@@ -5023,28 +5023,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168605</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5132,16 +5132,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5314,10 +5314,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5360,19 +5360,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.6461798836013</v>
+        <v>1057.955258982919</v>
       </c>
       <c r="C16" t="n">
-        <v>734.6461798836013</v>
+        <v>889.0190760550122</v>
       </c>
       <c r="D16" t="n">
-        <v>584.5295404712656</v>
+        <v>779.6143379232884</v>
       </c>
       <c r="E16" t="n">
-        <v>436.6164468888725</v>
+        <v>631.7012443408953</v>
       </c>
       <c r="F16" t="n">
-        <v>436.6164468888725</v>
+        <v>484.8112968429849</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5472,16 +5472,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1460.396302956689</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>1239.603723813159</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,10 +5503,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5515,10 +5515,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5548,16 +5548,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5603,13 +5603,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1051.964939354869</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.747069396417</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.757518498399</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.964939354869</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168605</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5840,13 +5840,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>802.9288273958734</v>
+        <v>800.5007694647231</v>
       </c>
       <c r="C22" t="n">
-        <v>633.9926444679666</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>483.8760050556308</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>483.8760050556308</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>483.8760050556308</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782912</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038298</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797699</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.10824923516</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.10824923516</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1975.033022579358</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1720.348534373471</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1430.93136433651</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369643</v>
+        <v>1202.941813438493</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.5772922261132</v>
+        <v>982.1492342949629</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,16 +5977,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6010,28 +6010,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6247,31 +6247,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400712</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>513.8536007400712</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6545,22 +6545,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>768.5380889459582</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C31" t="n">
-        <v>599.6019060180513</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>613.6374994204285</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>465.7244058380354</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>318.834458340125</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854706</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817745</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>1170.979132919728</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>950.1865537761979</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6730,19 +6730,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6782,22 +6782,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6931,28 +6931,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6961,16 +6961,16 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>244.2098454714574</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L36" t="n">
-        <v>739.5354516872161</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.913939313768</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
         <v>2516.421633107662</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>789.7592298206043</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>620.8230468926974</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>470.7064074803617</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979686</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2290.151385930679</v>
       </c>
       <c r="T37" t="n">
-        <v>2253.366709591041</v>
+        <v>2070.54992095362</v>
       </c>
       <c r="U37" t="n">
-        <v>1964.291482935239</v>
+        <v>1781.474694297818</v>
       </c>
       <c r="V37" t="n">
-        <v>1709.606994729352</v>
+        <v>1526.790206091931</v>
       </c>
       <c r="W37" t="n">
-        <v>1420.189824692392</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="X37" t="n">
-        <v>1192.200273794374</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y37" t="n">
-        <v>971.4076946508441</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="38">
@@ -7168,52 +7168,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591809</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7323,13 +7323,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7402,46 +7402,46 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7450,10 +7450,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,19 +7484,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
         <v>680.0291294438176</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>733.4550657171301</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C43" t="n">
-        <v>564.5188827892232</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D43" t="n">
-        <v>564.5188827892232</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E43" t="n">
-        <v>564.5188827892232</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588917</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>1135.8961096909</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y43" t="n">
-        <v>915.1035305473698</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="44">
@@ -7630,28 +7630,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7821,37 +7821,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603206</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>2227.361618603206</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1972.677130397319</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1683.259960360358</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>1455.270409462341</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>945.402603663004</v>
       </c>
     </row>
   </sheetData>
@@ -7981,19 +7981,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>256.7644825146879</v>
+        <v>258.8041889468121</v>
       </c>
       <c r="L2" t="n">
-        <v>221.1666787354324</v>
+        <v>271.649412930509</v>
       </c>
       <c r="M2" t="n">
-        <v>264.5839477933977</v>
+        <v>262.5442413612734</v>
       </c>
       <c r="N2" t="n">
         <v>212.9051825663978</v>
       </c>
       <c r="O2" t="n">
-        <v>264.993021668346</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P2" t="n">
         <v>268.4117974997384</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>180.3309306186853</v>
       </c>
       <c r="L3" t="n">
-        <v>176.2495065059443</v>
+        <v>172.3193876769556</v>
       </c>
       <c r="M3" t="n">
         <v>129.5917403577182</v>
@@ -8072,10 +8072,10 @@
         <v>118.4674613291454</v>
       </c>
       <c r="O3" t="n">
-        <v>130.8188201934042</v>
+        <v>181.3015543884808</v>
       </c>
       <c r="P3" t="n">
-        <v>175.0047203318838</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q3" t="n">
         <v>184.1458149818875</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>202.1809638361346</v>
+        <v>255.9772818167572</v>
       </c>
       <c r="L5" t="n">
-        <v>213.5488567752802</v>
+        <v>267.3451747559029</v>
       </c>
       <c r="M5" t="n">
-        <v>252.0347206524205</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N5" t="n">
         <v>258.0880505088102</v>
       </c>
       <c r="O5" t="n">
-        <v>260.1731688314972</v>
+        <v>252.7866526327947</v>
       </c>
       <c r="P5" t="n">
-        <v>264.7836813017771</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>179.4738158616228</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L6" t="n">
-        <v>167.4508656791093</v>
+        <v>175.9947778369091</v>
       </c>
       <c r="M6" t="n">
         <v>123.047446830095</v>
@@ -8309,10 +8309,10 @@
         <v>111.7499598249992</v>
       </c>
       <c r="O6" t="n">
-        <v>124.673618687554</v>
+        <v>178.4699366681766</v>
       </c>
       <c r="P6" t="n">
-        <v>173.3862381384502</v>
+        <v>164.8423259806504</v>
       </c>
       <c r="Q6" t="n">
         <v>184.1624432744798</v>
@@ -8452,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>53.81818816105439</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>29.40848459605206</v>
+        <v>29.40848459605266</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>137.26407320866</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>132.0718040433888</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>142.1686266863893</v>
       </c>
       <c r="P8" t="n">
-        <v>173.9159582285056</v>
+        <v>185.8047817831489</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>51.06167039640992</v>
       </c>
       <c r="K9" t="n">
-        <v>178.4614495570662</v>
+        <v>8.328260291751718</v>
       </c>
       <c r="L9" t="n">
-        <v>134.5411173874632</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>52.60565216702948</v>
+        <v>47.3987866116469</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>92.87555912359065</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>121.9017887632561</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>37.60103822001901</v>
+        <v>207.7342274853338</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>9.744586090424231e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23655,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>40.30478226780582</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>47.7129014545667</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>46.23519869957052</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>134.8730892594355</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>73.62417772602581</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9259388694759139</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>72.4449747012147</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>35.40333084624569</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>34.97276993489203</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>83.05123379926114</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>92.15795203868036</v>
       </c>
       <c r="T37" t="n">
-        <v>25.74504007796142</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
         <v>57.22910392194223</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25791,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51053793615074</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>114.1584408891657</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>84.77391660562006</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>45.37941682720574</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>852182.3658956143</v>
+        <v>852182.3658956144</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051416</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051417</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>813855.9833051417</v>
+        <v>813855.9833051418</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051419</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>813855.9833051417</v>
+        <v>813855.9833051418</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>813855.9833051418</v>
+        <v>813855.9833051419</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>813855.9833051419</v>
+        <v>813855.9833051418</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.327398212</v>
       </c>
       <c r="E2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.949767504</v>
       </c>
       <c r="J2" t="n">
         <v>605359.9497675044</v>
@@ -26343,16 +26343,16 @@
         <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="M2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="M2" t="n">
-        <v>605359.9497675041</v>
-      </c>
       <c r="N2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675039</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="P2" t="n">
         <v>605359.9497675045</v>
@@ -26371,10 +26371,10 @@
         <v>12004.91953871608</v>
       </c>
       <c r="D3" t="n">
-        <v>325486.397554381</v>
+        <v>325486.3975543799</v>
       </c>
       <c r="E3" t="n">
-        <v>1098807.963756735</v>
+        <v>1098807.963756736</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,19 +26392,19 @@
         <v>13208.50450573667</v>
       </c>
       <c r="K3" t="n">
-        <v>852.8104317184398</v>
+        <v>852.8104317183812</v>
       </c>
       <c r="L3" t="n">
-        <v>29443.81509031406</v>
+        <v>29443.81509031394</v>
       </c>
       <c r="M3" t="n">
-        <v>249845.7249299112</v>
+        <v>249845.7249299114</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.19711258155959e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,28 +26420,28 @@
         <v>392210.9417384904</v>
       </c>
       <c r="C4" t="n">
-        <v>389279.0943290079</v>
+        <v>389279.094329008</v>
       </c>
       <c r="D4" t="n">
-        <v>306360.6503278898</v>
+        <v>306360.6503278901</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719626</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719563</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719626</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719563</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719649</v>
+        <v>7507.368461719629</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171969</v>
       </c>
       <c r="K4" t="n">
         <v>7507.368461719667</v>
@@ -26450,16 +26450,16 @@
         <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
+        <v>7507.368461719696</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7507.3684617197</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7507.368461719698</v>
+      </c>
+      <c r="P4" t="n">
         <v>7507.368461719667</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7507.368461719667</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7507.368461719709</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7507.368461719772</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>37661.87961689879</v>
       </c>
       <c r="D5" t="n">
-        <v>52100.52571241494</v>
+        <v>52100.52571241488</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>147277.8236154679</v>
+        <v>147277.8236154676</v>
       </c>
       <c r="C6" t="n">
-        <v>176835.4339135894</v>
+        <v>176835.4339135895</v>
       </c>
       <c r="D6" t="n">
-        <v>-68166.24619647354</v>
+        <v>-68166.24619647278</v>
       </c>
       <c r="E6" t="n">
-        <v>-602425.2915292144</v>
+        <v>-602112.6502002941</v>
       </c>
       <c r="F6" t="n">
-        <v>496382.6722275207</v>
+        <v>496695.3135564419</v>
       </c>
       <c r="G6" t="n">
-        <v>496382.6722275206</v>
+        <v>496695.3135564419</v>
       </c>
       <c r="H6" t="n">
-        <v>496382.6722275206</v>
+        <v>496695.3135564419</v>
       </c>
       <c r="I6" t="n">
-        <v>496382.6722275207</v>
+        <v>496695.3135564416</v>
       </c>
       <c r="J6" t="n">
-        <v>483174.1677217839</v>
+        <v>483486.8090507052</v>
       </c>
       <c r="K6" t="n">
-        <v>495529.861795802</v>
+        <v>495842.5031247233</v>
       </c>
       <c r="L6" t="n">
-        <v>466938.8571372065</v>
+        <v>467251.4984661278</v>
       </c>
       <c r="M6" t="n">
-        <v>246536.9472976092</v>
+        <v>246849.5886265304</v>
       </c>
       <c r="N6" t="n">
-        <v>496382.6722275206</v>
+        <v>496695.3135564419</v>
       </c>
       <c r="O6" t="n">
-        <v>496382.6722275201</v>
+        <v>496695.3135564417</v>
       </c>
       <c r="P6" t="n">
-        <v>496382.6722275206</v>
+        <v>496695.3135564419</v>
       </c>
     </row>
   </sheetData>
@@ -26724,10 +26724,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26743,7 +26743,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>372.8820094075132</v>
+        <v>372.882009407512</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>53.79631798062264</v>
       </c>
       <c r="D4" t="n">
-        <v>170.1331892653149</v>
+        <v>170.1331892653145</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26822,13 +26822,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>12.007878032336</v>
       </c>
       <c r="D3" t="n">
-        <v>337.8607486883879</v>
+        <v>337.8607486883867</v>
       </c>
       <c r="E3" t="n">
-        <v>995.0934909341605</v>
+        <v>995.0934909341618</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>3.313583785546101</v>
       </c>
       <c r="D4" t="n">
-        <v>116.3368712846923</v>
+        <v>116.3368712846918</v>
       </c>
       <c r="E4" t="n">
-        <v>1002.575098834333</v>
+        <v>1002.575098834334</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>50.48273419507677</v>
       </c>
       <c r="K4" t="n">
-        <v>3.313583785546143</v>
+        <v>3.313583785545916</v>
       </c>
       <c r="L4" t="n">
-        <v>116.3368712846923</v>
+        <v>116.3368712846918</v>
       </c>
       <c r="M4" t="n">
-        <v>1002.575098834333</v>
+        <v>1002.575098834334</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>3.313583785546101</v>
       </c>
       <c r="L4" t="n">
-        <v>116.3368712846923</v>
+        <v>116.3368712846918</v>
       </c>
       <c r="M4" t="n">
-        <v>1002.575098834333</v>
+        <v>1002.575098834334</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>381.7181749193716</v>
       </c>
       <c r="H2" t="n">
         <v>338.5273214908784</v>
       </c>
       <c r="I2" t="n">
-        <v>188.6273371087425</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>93.57486856939362</v>
       </c>
       <c r="S2" t="n">
-        <v>156.4291245048363</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
         <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3382516189322</v>
+        <v>200.8555174238556</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>116.0504494547908</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>122.2257647932392</v>
       </c>
       <c r="D3" t="n">
-        <v>102.9798732856154</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>107.1623462603244</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,10 +27475,10 @@
         <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>61.27463958220945</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>37.20960569321311</v>
+        <v>37.2096056932131</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27520,7 +27520,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>207.2297908818962</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>129.3492459868608</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,10 +27545,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>138.047096124824</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>94.9383138278547</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>117.4667456208323</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>210.1977868303496</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>328.9375236828579</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>311.4765737903849</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>329.3372390123815</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>359.492248864379</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>361.3656305466968</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I5" t="n">
-        <v>151.2518041370232</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>119.1493867725349</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27715,7 +27715,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I6" t="n">
-        <v>86.80307722268739</v>
+        <v>39.41928034535497</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,10 +27745,10 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S6" t="n">
-        <v>116.4876546407105</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T6" t="n">
-        <v>146.0647829915492</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U6" t="n">
         <v>225.9364262421938</v>
@@ -27760,10 +27760,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>151.9766672228548</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>151.8863777966817</v>
       </c>
     </row>
     <row r="7">
@@ -27779,22 +27779,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>94.81915503758972</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>93.82765530564856</v>
       </c>
       <c r="F7" t="n">
-        <v>92.81474068201067</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9278262653587</v>
       </c>
       <c r="H7" t="n">
-        <v>107.8693661172546</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I7" t="n">
-        <v>99.75497120140832</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J7" t="n">
         <v>88.89425643449839</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.87383288310646</v>
+        <v>27.07751490248382</v>
       </c>
       <c r="R7" t="n">
         <v>174.4537986637794</v>
@@ -27855,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>195.1397025056926</v>
+        <v>284.9293978094299</v>
       </c>
       <c r="D8" t="n">
-        <v>274.3395476591046</v>
+        <v>184.5498523553685</v>
       </c>
       <c r="E8" t="n">
-        <v>211.7971808069468</v>
+        <v>211.7971808069473</v>
       </c>
       <c r="F8" t="n">
-        <v>236.7428564763965</v>
+        <v>236.742856476397</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>324.1229312460397</v>
+        <v>324.1229312460398</v>
       </c>
       <c r="I8" t="n">
-        <v>152.6847994490666</v>
+        <v>152.6847994490668</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.8610794782103</v>
+        <v>174.8610794782104</v>
       </c>
       <c r="T8" t="n">
         <v>216.5338757101358</v>
@@ -27934,7 +27934,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>2.5753097230008</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27943,16 +27943,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>139.0609592376865</v>
       </c>
       <c r="G9" t="n">
         <v>136.5414690675039</v>
       </c>
       <c r="H9" t="n">
-        <v>104.4893481542762</v>
+        <v>104.4893481542763</v>
       </c>
       <c r="I9" t="n">
-        <v>61.78225762642471</v>
+        <v>61.78225762642479</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.36049712271144</v>
+        <v>50.3604971227116</v>
       </c>
       <c r="S9" t="n">
         <v>156.785479501566</v>
       </c>
       <c r="T9" t="n">
-        <v>196.9319120283546</v>
+        <v>26.79872276304011</v>
       </c>
       <c r="U9" t="n">
         <v>225.8886157588888</v>
@@ -27997,10 +27997,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>199.7647320477793</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>35.54950651198942</v>
+        <v>35.54950651198988</v>
       </c>
     </row>
     <row r="10">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>9.698790916622812</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28028,13 +28028,13 @@
         <v>167.31856917756</v>
       </c>
       <c r="H10" t="n">
-        <v>156.2488347172666</v>
+        <v>156.2488347172667</v>
       </c>
       <c r="I10" t="n">
-        <v>135.2292669416836</v>
+        <v>135.2292669416837</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.81978032712817</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>147.0593845160292</v>
+        <v>147.0593845160293</v>
       </c>
       <c r="S10" t="n">
         <v>212.2983224298542</v>
       </c>
       <c r="T10" t="n">
-        <v>54.93937484458081</v>
+        <v>225.0725641098958</v>
       </c>
       <c r="U10" t="n">
-        <v>116.1491631722178</v>
+        <v>286.2823524375328</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>212.3463253899895</v>
+        <v>166.5265450628621</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>55.57646612372267</v>
       </c>
       <c r="Y10" t="n">
-        <v>48.45146408677985</v>
+        <v>48.45146408678031</v>
       </c>
     </row>
     <row r="11">
@@ -28104,10 +28104,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-2.937744760871893e-15</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
     </row>
     <row r="18">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
     </row>
     <row r="24">
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30893,7 +30893,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>4.571293608196788e-12</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.499023153397037</v>
+        <v>1.499023153397032</v>
       </c>
       <c r="H8" t="n">
-        <v>15.35187086972741</v>
+        <v>15.35187086972736</v>
       </c>
       <c r="I8" t="n">
-        <v>57.79109012133932</v>
+        <v>57.79109012133914</v>
       </c>
       <c r="J8" t="n">
-        <v>127.2277163656319</v>
+        <v>127.2277163656315</v>
       </c>
       <c r="K8" t="n">
-        <v>190.6813664489285</v>
+        <v>190.6813664489279</v>
       </c>
       <c r="L8" t="n">
-        <v>236.5570962797031</v>
+        <v>236.5570962797024</v>
       </c>
       <c r="M8" t="n">
-        <v>263.2153492839277</v>
+        <v>263.2153492839268</v>
       </c>
       <c r="N8" t="n">
-        <v>267.474448818517</v>
+        <v>267.4744488185162</v>
       </c>
       <c r="O8" t="n">
-        <v>252.5685373369252</v>
+        <v>252.5685373369244</v>
       </c>
       <c r="P8" t="n">
-        <v>215.5614032374358</v>
+        <v>215.5614032374351</v>
       </c>
       <c r="Q8" t="n">
-        <v>161.8776365564044</v>
+        <v>161.8776365564039</v>
       </c>
       <c r="R8" t="n">
-        <v>94.16301315957671</v>
+        <v>94.16301315957641</v>
       </c>
       <c r="S8" t="n">
-        <v>34.15899010803501</v>
+        <v>34.15899010803491</v>
       </c>
       <c r="T8" t="n">
-        <v>6.561973853995533</v>
+        <v>6.561973853995512</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1199218522717629</v>
+        <v>0.1199218522717626</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8020480957067266</v>
+        <v>0.8020480957067241</v>
       </c>
       <c r="H9" t="n">
-        <v>7.746096082220229</v>
+        <v>7.746096082220205</v>
       </c>
       <c r="I9" t="n">
-        <v>27.61437522499037</v>
+        <v>27.61437522499028</v>
       </c>
       <c r="J9" t="n">
-        <v>75.77595627025703</v>
+        <v>75.77595627025677</v>
       </c>
       <c r="K9" t="n">
-        <v>129.5131786826077</v>
+        <v>129.5131786826073</v>
       </c>
       <c r="L9" t="n">
-        <v>174.1464516577259</v>
+        <v>174.1464516577254</v>
       </c>
       <c r="M9" t="n">
-        <v>203.2206951270947</v>
+        <v>203.220695127094</v>
       </c>
       <c r="N9" t="n">
-        <v>208.5993422250578</v>
+        <v>208.5993422250571</v>
       </c>
       <c r="O9" t="n">
-        <v>190.8276449465035</v>
+        <v>190.8276449465029</v>
       </c>
       <c r="P9" t="n">
-        <v>153.1560087319275</v>
+        <v>153.156008731927</v>
       </c>
       <c r="Q9" t="n">
-        <v>102.3807358660025</v>
+        <v>102.3807358660022</v>
       </c>
       <c r="R9" t="n">
-        <v>49.7973370299317</v>
+        <v>49.79733702993153</v>
       </c>
       <c r="S9" t="n">
-        <v>14.89769160227186</v>
+        <v>14.89769160227182</v>
       </c>
       <c r="T9" t="n">
-        <v>3.232816666467024</v>
+        <v>3.232816666467014</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05276632208596888</v>
+        <v>0.05276632208596871</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6724101808987942</v>
+        <v>0.6724101808987921</v>
       </c>
       <c r="H10" t="n">
-        <v>5.978337790172921</v>
+        <v>5.978337790172902</v>
       </c>
       <c r="I10" t="n">
-        <v>20.22120798557466</v>
+        <v>20.22120798557459</v>
       </c>
       <c r="J10" t="n">
-        <v>47.53939978954475</v>
+        <v>47.5393997895446</v>
       </c>
       <c r="K10" t="n">
-        <v>78.12183738078717</v>
+        <v>78.12183738078693</v>
       </c>
       <c r="L10" t="n">
-        <v>99.96905544017167</v>
+        <v>99.96905544017135</v>
       </c>
       <c r="M10" t="n">
-        <v>105.4033522657992</v>
+        <v>105.4033522657988</v>
       </c>
       <c r="N10" t="n">
-        <v>102.8970961369947</v>
+        <v>102.8970961369943</v>
       </c>
       <c r="O10" t="n">
-        <v>95.04212266013143</v>
+        <v>95.04212266013113</v>
       </c>
       <c r="P10" t="n">
-        <v>81.32495496979595</v>
+        <v>81.3249549697957</v>
       </c>
       <c r="Q10" t="n">
-        <v>56.3051834205345</v>
+        <v>56.30518342053432</v>
       </c>
       <c r="R10" t="n">
-        <v>30.23400686114033</v>
+        <v>30.23400686114023</v>
       </c>
       <c r="S10" t="n">
-        <v>11.71827560711808</v>
+        <v>11.71827560711804</v>
       </c>
       <c r="T10" t="n">
-        <v>2.873025318385757</v>
+        <v>2.873025318385747</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0366769189581161</v>
+        <v>0.03667691895811598</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31852,19 +31852,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9598929192557</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32080,13 +32080,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32095,7 +32095,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32323,16 +32323,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>639.4703354763103</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32560,16 +32560,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32791,13 +32791,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>175.6052721551106</v>
+        <v>351.1157147121651</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32806,7 +32806,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33028,13 +33028,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>175.6052721551106</v>
+        <v>351.1157147121651</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33043,7 +33043,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33265,13 +33265,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33280,10 +33280,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33502,10 +33502,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33517,10 +33517,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33739,10 +33739,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>138.5955196772184</v>
+        <v>211.0222436375122</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33754,7 +33754,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33976,10 +33976,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33991,10 +33991,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34213,13 +34213,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>245.8118639189582</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>361.7519118779092</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34701,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>50.48273419507654</v>
+      </c>
+      <c r="L2" t="n">
+        <v>50.48273419507654</v>
+      </c>
+      <c r="M2" t="n">
         <v>48.44302776295223</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>50.48273419507654</v>
-      </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>50.48273419507654</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3.930118828988642</v>
       </c>
       <c r="K3" t="n">
         <v>50.48273419507654</v>
       </c>
       <c r="L3" t="n">
-        <v>48.44302776295223</v>
+        <v>44.51290893396359</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,10 +34792,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="P3" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>50.48273419507654</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="M5" t="n">
-        <v>46.40980178192011</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>53.79631798062264</v>
       </c>
       <c r="O5" t="n">
-        <v>53.79631798062264</v>
+        <v>46.40980178192013</v>
       </c>
       <c r="P5" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>5.212927593424824</v>
@@ -35017,11 +35017,11 @@
         <v>6.370323552522133</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>53.79631798062264</v>
       </c>
-      <c r="L6" t="n">
-        <v>45.25240582282281</v>
-      </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
@@ -35029,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="P6" t="n">
-        <v>53.79631798062264</v>
+        <v>45.25240582282282</v>
       </c>
       <c r="Q6" t="n">
         <v>53.79631798062264</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>115.278427011019</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7906813097158931</v>
+        <v>0.7906813097151257</v>
       </c>
       <c r="M8" t="n">
-        <v>170.1331892653149</v>
+        <v>32.86911605665406</v>
       </c>
       <c r="N8" t="n">
-        <v>170.1331892653149</v>
+        <v>38.06138522192526</v>
       </c>
       <c r="O8" t="n">
-        <v>22.47032591523848</v>
+        <v>164.638952601627</v>
       </c>
       <c r="P8" t="n">
-        <v>158.2443657106719</v>
+        <v>170.1331892653145</v>
       </c>
       <c r="Q8" t="n">
-        <v>151.8869373418596</v>
+        <v>151.8869373418591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>75.02936494399917</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>170.1331892653149</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>170.1331892653149</v>
+        <v>35.59207187785117</v>
       </c>
       <c r="M9" t="n">
-        <v>113.6923133721059</v>
+        <v>108.4854478167226</v>
       </c>
       <c r="N9" t="n">
-        <v>77.25763014172452</v>
+        <v>170.1331892653145</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23140050205905</v>
+        <v>170.1331892653145</v>
       </c>
       <c r="P9" t="n">
-        <v>19.18160131759723</v>
+        <v>19.18160131759674</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>170.1331892653145</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>55.85234555490432</v>
+        <v>55.85234555490408</v>
       </c>
       <c r="L10" t="n">
-        <v>127.5590807004878</v>
+        <v>127.5590807004875</v>
       </c>
       <c r="M10" t="n">
-        <v>144.9872292276398</v>
+        <v>144.9872292276394</v>
       </c>
       <c r="N10" t="n">
-        <v>147.0292685162233</v>
+        <v>147.0292685162229</v>
       </c>
       <c r="O10" t="n">
-        <v>119.6272505741711</v>
+        <v>119.6272505741708</v>
       </c>
       <c r="P10" t="n">
-        <v>78.60351423468944</v>
+        <v>78.60351423468919</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35500,19 +35500,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>332.6181808359224</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35728,13 +35728,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35743,7 +35743,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>508.128623392977</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36132,7 +36132,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819351</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36208,16 +36208,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326294878</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36378,10 +36378,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>37.76383318075158</v>
+        <v>213.2742757378061</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36454,7 +36454,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36615,7 +36615,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36676,13 +36676,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>37.76383318075158</v>
+        <v>213.2742757378061</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36691,7 +36691,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36928,10 +36928,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37150,10 +37150,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37165,10 +37165,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0.7540807028594299</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37402,7 +37402,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367785</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37624,10 +37624,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37639,10 +37639,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902961</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37861,13 +37861,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>103.6778299969399</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -38022,7 +38022,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>219.1556674334648</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38189,7 +38189,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.26189970605</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
